--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146007.8887719531</v>
+        <v>25234174.88931866</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146007.8887719531</v>
+        <v>25234174.88931866</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7939.557894820347</v>
+        <v>842990.6552343795</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7939.557894820347</v>
+        <v>842990.6552343795</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188059709.184813</v>
+        <v>47441315.89477328</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8452.514663091435</v>
+        <v>974833.5926736397</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16887.55785047353</v>
+        <v>1946190.361681118</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25322.6010378556</v>
+        <v>2917547.130688598</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33948.85946437976</v>
+        <v>3891740.90189559</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>42565.59184636776</v>
+        <v>4864038.990239878</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>51182.32422835575</v>
+        <v>5836337.078584165</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>59799.05661034374</v>
+        <v>6808635.166928448</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68415.78899233173</v>
+        <v>7780933.255272731</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>77154.8537317735</v>
+        <v>8724183.714289015</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>85612.85456153948</v>
+        <v>9692855.250037111</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>94047.80031181971</v>
+        <v>10661892.33733389</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>102339.3009587948</v>
+        <v>11632877.88862458</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>110631.15967624</v>
+        <v>12603934.69593885</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>119501.0615007801</v>
+        <v>13521104.07532274</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>128782.8138446844</v>
+        <v>14391283.10302486</v>
       </c>
     </row>
   </sheetData>
